--- a/Data/PozarySr.xlsx
+++ b/Data/PozarySr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avila\Downloads\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avila\Documents\GitHub\avila_etal_2023\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7F28B0-C638-46F3-BE0A-72F5D02D0E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919C259A-9380-4901-B544-C63F7948C8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="14400" windowHeight="9125" xr2:uid="{26D6DF8E-BEB3-4D5F-8827-9DABA7F51827}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{26D6DF8E-BEB3-4D5F-8827-9DABA7F51827}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Age</t>
   </si>
   <si>
     <t>Sr</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
@@ -93,19 +96,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,172 +430,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E102EC1-6BFA-4DC8-AAD4-ABBFF8F37802}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="3" width="8.7265625" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
         <v>-411.7</v>
       </c>
       <c r="B2" s="4">
         <v>0.70858538848406483</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C2" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="3">
         <v>-414.1</v>
       </c>
       <c r="B3" s="4">
         <v>0.70864462346312374</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C3" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A4" s="3">
         <v>-417.4</v>
       </c>
       <c r="B4" s="4">
         <v>0.7086700495440208</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C4" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="3">
         <v>-419.4</v>
       </c>
       <c r="B5" s="4">
         <v>0.70869058295162379</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C5" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="3">
         <v>-419.8</v>
       </c>
       <c r="B6" s="4">
         <v>0.70869519413054072</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C6" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" s="3">
         <v>-420.5</v>
       </c>
       <c r="B7" s="4">
         <v>0.70870366691422182</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C7" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="3">
         <v>-420.9</v>
       </c>
       <c r="B8" s="4">
         <v>0.70870231287967478</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C8" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" s="3">
         <v>-421</v>
       </c>
       <c r="B9" s="4">
         <v>0.70868312168715375</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C9" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" s="3">
         <v>-421.1</v>
       </c>
       <c r="B10" s="4">
         <v>0.70870379207106682</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C10" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" s="3">
         <v>-421.4</v>
       </c>
       <c r="B11" s="4">
         <v>0.7086953037794298</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C11" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A12" s="3">
         <v>-421.7</v>
       </c>
       <c r="B12" s="4">
         <v>0.70869818508778204</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C12" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" s="3">
         <v>-422.4</v>
       </c>
       <c r="B13" s="4">
         <v>0.70870514113467009</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C13" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" s="3">
         <v>-422.7</v>
       </c>
       <c r="B14" s="4">
         <v>0.70870771038265901</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C14" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A15" s="3">
         <v>-422.7</v>
       </c>
       <c r="B15" s="4">
         <v>0.70870635709942709</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C15" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" s="3">
         <v>-423.2</v>
       </c>
       <c r="B16" s="4">
         <v>0.70869733217095909</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C16" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A17" s="3">
         <v>-423.2</v>
       </c>
       <c r="B17" s="4">
         <v>0.70868470068599609</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C17" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A18" s="3">
         <v>-423.3</v>
       </c>
       <c r="B18" s="4">
         <v>0.70868380141602905</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C18" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A19" s="3">
         <v>-423.5</v>
       </c>
       <c r="B19" s="4">
         <v>0.7086778363504741</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="C19" s="5">
+        <v>9.0000000000000002E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A20" s="3">
         <v>-423.6</v>
       </c>
       <c r="B20" s="4">
         <v>0.70866689052713405</v>
+      </c>
+      <c r="C20" s="5">
+        <v>9.0000000000000002E-6</v>
       </c>
     </row>
   </sheetData>
